--- a/Status/FairyBaseStatus.xlsx
+++ b/Status/FairyBaseStatus.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>剣１</t>
     <rPh sb="0" eb="1">
@@ -124,10 +124,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本２</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2-3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>杖１</t>
     <rPh sb="0" eb="1">
       <t>ツエ</t>
@@ -164,10 +156,6 @@
     <rPh sb="0" eb="1">
       <t>ツエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2-4</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -278,6 +266,42 @@
   </si>
   <si>
     <t>move</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最短射程</t>
+    <rPh sb="0" eb="2">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大射程</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -618,292 +642,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>-2</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
         <v>-2</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>3</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>-1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
         <v>-2</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>6</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
         <v>2</v>
@@ -913,202 +1005,266 @@
         <v>2</v>
       </c>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>-2</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>3</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
       <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
         <v>-2</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
         <v>-10</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
